--- a/affichage_ecg/mono_feature_explanation_1dAVb_2.xlsx
+++ b/affichage_ecg/mono_feature_explanation_1dAVb_2.xlsx
@@ -851,19 +851,19 @@
         <v>0.036</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="F14" t="n">
         <v>0.033</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15">
@@ -881,19 +881,19 @@
         <v>0.036</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G15" t="n">
         <v>-0.01</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="H15" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16">
@@ -911,19 +911,19 @@
         <v>0.036</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.04</v>
+        <v>0.09</v>
       </c>
       <c r="E16" t="n">
-        <v>-0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.033</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="17">
@@ -941,19 +941,19 @@
         <v>0.036</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>0.033</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
@@ -971,19 +971,19 @@
         <v>0.036</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0</v>
+        <v>-0.27</v>
       </c>
       <c r="F18" t="n">
         <v>0.033</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1001,19 +1001,19 @@
         <v>0.036</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="F19" t="n">
         <v>0.033</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H19" t="n">
-        <v>-0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
@@ -1031,19 +1031,19 @@
         <v>0.036</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04</v>
+        <v>-0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="F20" t="n">
         <v>0.033</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
@@ -1061,19 +1061,19 @@
         <v>0.036</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="F21" t="n">
         <v>0.033</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="22">
@@ -1091,19 +1091,19 @@
         <v>0.036</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="F22" t="n">
         <v>0.033</v>
       </c>
       <c r="G22" t="n">
-        <v>-0</v>
+        <v>0.09</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
@@ -1124,16 +1124,16 @@
         <v>0.09</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F23" t="n">
         <v>0.033</v>
       </c>
       <c r="G23" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.05</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
@@ -1151,19 +1151,19 @@
         <v>0.036</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="F24" t="n">
         <v>0.033</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
@@ -1181,19 +1181,19 @@
         <v>0.036</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.06</v>
+        <v>-0.24</v>
       </c>
       <c r="F25" t="n">
         <v>0.033</v>
       </c>
       <c r="G25" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
